--- a/banks.xlsx
+++ b/banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,84 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aachener Bausparkasse AG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.firmenwissen.com/en/az/firmeneintrag/52062/8090016887/AACHENER_BAUSPARKASSE_AG.html</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>kontakt@creditreform.dewww.creditreform.de</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hammfelddamm 13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>41460 Neuss Tel: +49 2131 109-0  Fax: +49 2131 109-8000 kontakt@creditreform.dewww.creditreform.de Hinweis nach § 36 Verbraucherstreitbeilegungsgesetz (VSBG): Der Verband der Vereine Creditreform e.V. nimmt nicht an einem Streitbeilegungsverfahren im Sinne des Verbraucherstreitbeilegungsgesetzes teil. Es besteht diesbezüglich keine gesetzliche Verpflichtung.Versicherungsvermittlerregister gemäß § 11a GewerbeordnungDie Erlaubnis als Versicherungsvertreter mit Erlaubnisbefreiung nach § 34d Abs. 6 GewO (produktakzessorisch) wurde erteilt durch die zuständige Aufsichtsbehörde, die Industrie- und Handelskammer Mittlerer Niederrhein, Nordwall  39, 47798 Krefeld, an Verband der Vereine Creditreform e.V. unter der Registrierungs-Nr. D-Z42F-0FY1G-19. Die Registrierungs-Nr. wird geführt bei dem Deutschen Industrie- u. Handelskammertag, Breite Straße 29, 10187 Berlin.Journalistisch-redaktioneller Inhalt nach § 55 Abs. 2 RStVVerantwortlich für Beiträge mit journalistisch-redaktionellem Inhalt nach § 55 Abs. 2 RStV ist Herr Patrik-Ludwig Hantzsch, Anschrift siehe obenVertretungsberechtigtePräsidiumDr. Holger BisselSebastian SchlegelThomas SchurkVereinsregister Neuss  Vereinsregister Nr. 57 VR 506  USt-IdNr.: DE 120 701 072</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aareal Bank AG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.aareal-bank.com/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Impressum@aareal-bank.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SyndicationVermarktungWohnungswirtschaftProzessoptimierung WohnungsverwaltungZahlungsverkehr / Electronic BankingKautionsverwaltungAareal PortalMobile ZahlungsfreigabeAareal MeterKooperationspartner in der WohnungswirtschaftFremdverwaltungRechnungsdatenverarbeitungGeldanlagenImmobilienvermarktungAareal Exchange Payment PlatformFinanzierungenIT-Lösungen der Aareon AGWartungshinweiseDownloadsKontaktImmobilienwirtschaftProzessoptimierung ImmobilienverwaltungZahlungsverkehr / Electronic BankingKautionsverwaltungAareal PortalMobile ZahlungsfreigabeGeldanlagenImmobilienvermarktungIT-Lösungen der Aareon AGDownloadsKontaktEnergiewirtschaftZahlungsmanagementBranchenübergreifende ProzessoptimierungElektronische RechnungZahlungsverkehr / Electronic BankingAareal PortalMobile ZahlungsfreigabeGeldanlagenKooperationspartnerschaften in der EnergiewirtschaftImmobilienvermarktungAareal Exchange Payment PlatformIT-Lösungen der Aareon AGTransformation meisternCase Paper eConnectDownloadsKontaktIhre Perspektiven bei unsStellenangeboteInitiativbewerbungFragen und Antworten zur BewerbungKontaktArbeitgeber Aareal BankEin ausgezeichneter ArbeitgeberBeruf und Familie  – Wir unterstützen Sie!Benefits und VergütungBetriebliches GesundheitsmanagementPersonalentwicklung und WeiterbildungWo wir leben und arbeitenWo Sie uns treffenSie sind ...BerufserfahrenerBerufseinsteigerStudentSchülerInvestorenportalAktieninvestorenHauptversammlung 2022</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>65189 Wiesbaden  Tel: +49 (0) 611/348-0 Fax: +49 (0) 611/348-72217 E-mail: Impressum@aareal-bank.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ABANCA Corporación Bancaria, S.A. Repräsentanz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.abancacorporacionbancaria.com/en/investors/financial-information/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banks.xlsx
+++ b/banks.xlsx
@@ -499,26 +499,10 @@
           <t>Aachener Bank eG</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.aachener-bank.de/startseite.html</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>info@aachener-bank.de</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Theaterstraße 5</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>52062 Aachen</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,26 +513,10 @@
           <t>Aachener Bausparkasse AG</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.firmenwissen.com/en/az/firmeneintrag/52062/8090016887/AACHENER_BAUSPARKASSE_AG.html</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>kontakt@creditreform.dewww.creditreform.de</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hammfelddamm 13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>41460 Neuss Tel: +49 2131 109-0  Fax: +49 2131 109-8000 kontakt@creditreform.dewww.creditreform.de Hinweis nach § 36 Verbraucherstreitbeilegungsgesetz (VSBG): Der Verband der Vereine Creditreform e.V. nimmt nicht an einem Streitbeilegungsverfahren im Sinne des Verbraucherstreitbeilegungsgesetzes teil. Es besteht diesbezüglich keine gesetzliche Verpflichtung.Versicherungsvermittlerregister gemäß § 11a GewerbeordnungDie Erlaubnis als Versicherungsvertreter mit Erlaubnisbefreiung nach § 34d Abs. 6 GewO (produktakzessorisch) wurde erteilt durch die zuständige Aufsichtsbehörde, die Industrie- und Handelskammer Mittlerer Niederrhein, Nordwall  39, 47798 Krefeld, an Verband der Vereine Creditreform e.V. unter der Registrierungs-Nr. D-Z42F-0FY1G-19. Die Registrierungs-Nr. wird geführt bei dem Deutschen Industrie- u. Handelskammertag, Breite Straße 29, 10187 Berlin.Journalistisch-redaktioneller Inhalt nach § 55 Abs. 2 RStVVerantwortlich für Beiträge mit journalistisch-redaktionellem Inhalt nach § 55 Abs. 2 RStV ist Herr Patrik-Ludwig Hantzsch, Anschrift siehe obenVertretungsberechtigtePräsidiumDr. Holger BisselSebastian SchlegelThomas SchurkVereinsregister Neuss  Vereinsregister Nr. 57 VR 506  USt-IdNr.: DE 120 701 072</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -591,7 +559,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.abancacorporacionbancaria.com/en/investors/financial-information/</t>
+          <t>https://www.bankingclub.de/firmen/abanca-corporacion-bancaria-s-a-repraesentanz/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>

--- a/banks.xlsx
+++ b/banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,26 +469,10 @@
           <t>”Spar- und Kreditbank Evangelisch-Freikirchlicher Gemeinden eG”</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.skb-badhomburg.de/startseite.html</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>info@skb-badhomburg.de</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Friedberger Str. 101</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">61350 Bad Homburg v. d. Höhe </t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -527,26 +511,10 @@
           <t>Aareal Bank AG</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.aareal-bank.com/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Impressum@aareal-bank.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SyndicationVermarktungWohnungswirtschaftProzessoptimierung WohnungsverwaltungZahlungsverkehr / Electronic BankingKautionsverwaltungAareal PortalMobile ZahlungsfreigabeAareal MeterKooperationspartner in der WohnungswirtschaftFremdverwaltungRechnungsdatenverarbeitungGeldanlagenImmobilienvermarktungAareal Exchange Payment PlatformFinanzierungenIT-Lösungen der Aareon AGWartungshinweiseDownloadsKontaktImmobilienwirtschaftProzessoptimierung ImmobilienverwaltungZahlungsverkehr / Electronic BankingKautionsverwaltungAareal PortalMobile ZahlungsfreigabeGeldanlagenImmobilienvermarktungIT-Lösungen der Aareon AGDownloadsKontaktEnergiewirtschaftZahlungsmanagementBranchenübergreifende ProzessoptimierungElektronische RechnungZahlungsverkehr / Electronic BankingAareal PortalMobile ZahlungsfreigabeGeldanlagenKooperationspartnerschaften in der EnergiewirtschaftImmobilienvermarktungAareal Exchange Payment PlatformIT-Lösungen der Aareon AGTransformation meisternCase Paper eConnectDownloadsKontaktIhre Perspektiven bei unsStellenangeboteInitiativbewerbungFragen und Antworten zur BewerbungKontaktArbeitgeber Aareal BankEin ausgezeichneter ArbeitgeberBeruf und Familie  – Wir unterstützen Sie!Benefits und VergütungBetriebliches GesundheitsmanagementPersonalentwicklung und WeiterbildungWo wir leben und arbeitenWo Sie uns treffenSie sind ...BerufserfahrenerBerufseinsteigerStudentSchülerInvestorenportalAktieninvestorenHauptversammlung 2022</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>65189 Wiesbaden  Tel: +49 (0) 611/348-0 Fax: +49 (0) 611/348-72217 E-mail: Impressum@aareal-bank.com</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -557,14 +525,2225 @@
           <t>ABANCA Corporación Bancaria, S.A. Repräsentanz</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.bankingclub.de/firmen/abanca-corporacion-bancaria-s-a-repraesentanz/</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABC International Bank plc, Zweigniederlassung Frankfurt am Main ABERDEEN ASSET MANAGERS LIMITED, DEUTSCHLAND BRANCH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>abcbank GmbH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ABG Sundal Collier ASA Niederlassung Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://firmeneintrag.creditreform.de/60313/6070595815/ABG_SUNDAL_COLLIER_ASA_NIEDERLASSUNG_FRANKFURT_AM_MAIN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ABK Allgemeine Beamten Bank AG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.abkbank.de/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>info@abkbank.de</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Invalidenstr. 28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10115 Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ABN AMRO Bank N.V. Frankfurt Branch</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ABN AMRO Hypotheken Groep B.V. Deutschland</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://thebanks.eu/banks/11095/locations</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ABN AMRO Lease N.V., Niederlassung Deutschland</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Abtsgmünder Bank - Raiffeisen - eG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ACON Actienbank AG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.aconbank.de/wp-content/uploads/2019/01/190130-Präsentation-ACON-Actienbank-AG_EN-neu.pdf</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Admiral Markets UK Ltd., Zweigniederlassung Berlin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Adyen B.V., German Branch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Aegon Asset Management Pan-Europe B.V. Frankfurt Zweigniederlassung</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.bankingclub.de/firmen/aegon-asset-management-pan-europe-b-v-frankfurt-zweigniederlassung/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AFS Interest B.V. Zweigniederlassung Frankfurt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.bankingclub.de/firmen/afs-interest-b-v-zweigniederlassung-frankfurt/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AGCO Finance GmbH</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.agcofinance.com/fr/fr-fr</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Agricultural Bank of China Limited Frankfurt Branch</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>http://www.de.abchina.com/en/contact_us/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Airbus Bank GmbH</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.airbusbank.com/de/ueber-uns/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>www.airbusbank.cominfo@airbusbank.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Prannerstraße 8</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>80333 München</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AKA Ausfuhrkredit-Gesellschaft mit beschränkter Haftung</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AKBANK AG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>akf bank GmbH &amp; Co KG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.akf.de/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25727-1509thermomix@akf.de</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Am Diek 50 42277 Wuppertal T +49 202 25727-0 F +49 202 25727-1200info@akf.deakf bank GmbH &amp; Co KG Sitz: Am Diek 50 42277 Wuppertal Registergericht: Wuppertal HRA 15563Persönlich haftende Gesellschafterin: akf bank Beteiligungs-GmbH Registergericht: Wuppertal HRB 4639 Umsatzsteueridentifikations-Nr.: DE 121103726Geschäftsführer: Dr. Frank Henes (Vorsitzender) Bernhard Ismann Holger StuhlmannZuständige Aufsichtsbehörde: Bundesanstalt für Finanzdienstleistungsaufsicht (BaFin) Dienstsitz Bonn: Graurheindorfer Str. 108 53117 Bonn Dienstsitz Frankfurt am Main: Marie-Curie-Str. 24-28 60439 FrankfurtVersicherungsvermittlerregister (www.vermittlerregister.info): Register-Nr. D-3TLF-WYR5H-08Erlaubnisbefreiung gemäß § 34 d Abs. 7 GewOAufsichtsbehörde: Industrie- und Handelskammer Wuppertal-Solingen-Remscheid Heinrich-Kamp-Platz 2 42103 Wuppertalwww.wuppertal.ihk24.deMitglied der Bergischen Industrie- und Handelskammer Wuppertal-Solingen-Remscheid  Heinrich-Kamp-Platz 2 42103 WuppertalGebundener Versicherungsvertreter; Bundesrepublik DeutschlandBerufsrechtliche Regelung:  § 34 d Gewerbeordnung §§ 59-68 VVG VersVermV Die berufsrechtlichen Regelungen können über die vom Bundesministerium der Justiz und von der juris GmbH betriebenen Homepage www.gesetze-im-internet.de eingesehen und abgerufen werakf leasing GmbH &amp; Co KG Sitz: Am Diek 50 42277 Wuppertal Registergericht: Wuppertal HRA 15916 Umsatzsteueridentifikations-Nr.: DE121103951Persönlich haftende Gesellschafterin: akf leasing Beteiligungs-GmbH Registergericht: Wuppertal HRB 5634 Geschäftsführer: Dr. Frank Henes (Vorsitzender) Bernhard Ismann Holger StuhlmannZuständige Aufsichtsbehörde: Bundesanstalt für Finanzdienstleistungsaufsicht (BaFin) Dienstsitz Bonn: Graurheindorfer Str. 108 53117 Bonn Dienstsitz Frankfurt am Main: Marie-Curie-Str. 24-28 60439 FrankfurtVersicherungsvermittlerregister (www.vermittlerregister.info): Register-Nr. D-R9W3-JTDP8-04Erlaubnisbefreiung gemäß § 34 d Abs. 7 GewOAufsichtsbehörde: Industrie- und Handelskammer Wuppertal-Solingen-Remscheid Heinrich-Kamp-Platz 2 42103 Wuppertalwww.wuppertal.ihk24.deMitglied der Bergischen Industrie- und Handelskammer Wuppertal-Solingen-Remscheid  Heinrich-Kamp-Platz 2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>25727-0 Haben Sie ein Anliegen zu einer Vorwerk-Finanzierung, so erreichen Sie uns unter folgenden Kontaktmöglichkeiten: Thermomix-Finanzierung:+49 202 25727-1509thermomix@akf.de Kobold-Finanzierung:+49 202 25727-1511kobold@akf.de Haben Sie ein Anliegen zu akf tagesgeld oder akf festgeld, so erreichen Sie uns unter folgender Rufnummer:+49 202 25727-2121 Oder auf der Website:www.akf24.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aktivbank Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Allgäuer Volksbank eG Kempten-Sonthofen</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Alpha Wertpapierhandels GmbH</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>http://www.alpha-trading.de/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Alphabetische Aufstellung der Kreditinstitute und Repräsentanzen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ALTE LEIPZIGER Bauspar AG</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Altonaer Spar- und Bauverein eG</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Alxing-Brucker Genossenschaftsbank eG</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Andelskassen Sonderjylland - Repräsentanz</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://herfurtner49.rssing.com/chan-58575111/all_p1.html</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Arab Banking Corporation, Daus &amp; Co. GmbH</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.bank-abc.com/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Arabesque Asset Management Limited (Germany)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ares Management Limited Niederlassung Deutschland   60325 Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.bankingclub.de/firmen/ares-management-limited-niederlassung-deutschland/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Asian Development Bank European Representative Office</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.adb.org/offices/europe/main</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Attijariwafa Bank Europe</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://particuliers.attijariwafabank-europe.fr/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Augsburger Aktienbank Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.aab.de/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>info@aab.de</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AktiengesellschaftHalderstraße 2186150</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2186150 AugsburgDeutschlandTelefon 0821 5015 -0E-Mail info@aab.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Augusta-Bank eG Raiffeisen-Volksbank</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AUMA KREDITBANK GMBH &amp; CO. KG,</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Australia and New Zealand Banking Group Ltd. Niederlassung Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.anz.com/institutional/global/germany/deu/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AutoBank AG, Zweigniederlassung Deutschland</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Aviva Investors Global Services Limited, Zweigniederlassung Deutschland</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AXA Bank AG</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.axa.de/presse/axabank-abschluss-inhaberkontrollverfahren</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>service@axa.deBitte</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AktiengesellschaftColonia-Allee 10-2051</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2051067 KölnPostanschrift: 51171 KölnTel.: 0800 3203205E-Mail: service@axa.deBitte beachten Sie, dass eingehende Anfragen über unser Kontaktformular schneller bearbeitet werden und zudem eine SSL-Verschlüsselung die erhöhte Sicherheit Ihrer Daten gewährleistet.Internet: www.AXA.deMitglieder des Vorstandes:Herr Dr. Thilo Schumacher (Vorsitzender)Herr Dr. Karsten DietrichFrau Beate HeinischHerr Kai KuklinskiFrau Sirka LaudonHerr Dr. Stefan LemkeFrau Stephanie Layton PetersonHerr Dr. Nils ReichHerr Dr. Marc Daniel ZimmermannVorsitzender des Aufsichtsrates:Herr Antimo PerrettaSitz der Gesellschaft:KölnHandelsregister Köln HR B Nr. 672Umsatzsteueridentifikationsnummer (USt.-Ident.-Nr.): DE 122786679</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B. Metzler seel. Sohn &amp; Co. Kommanditgesellschaft auf Aktien</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.metzler.com/de/metzler</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>metzler@metzler.com</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Graurheindorfer Straße 108</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>60329 Frankfurt am Main</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Baader Bank Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.baaderbank.de/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>service@baaderbank.de</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Weihenstephaner Str. 4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>85716 Unterschleißheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BAG Bankaktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.bag-bank.de/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>info@bag-bank.de</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Gabelsbergerstraße 1a</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>59069 Hamm</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Banca Monte dei Paschi di Siena S.p.A. Repräsentanz Frankfurt am Main Banco Bilbao Vizcaya Argentaria, S.A., Niederlassung Deutschland</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.bankingclub.de/firmen/banca-monte-dei-paschi-di-siena-s-p-a-repraesentanz-frankfurt-am-main/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Banco do Brasil S.A. Zweigniederlassung Frankfurt/Main</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Banco Itaú S.A. Repräsentanz Frankfurt</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>http://www.privatebanking.com/directory/europe-germany-hessen-darmstadt-frankfurt-am-main/banks-rep-offices/banco-itau-sa</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Banco Pastor Repräsentanz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Banco Santander Totta S.A., Repräsentanz</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://m.yelp.com/biz/banco-santander-totta-s-a-repräsentanz-köln</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Banco Santander, S.A., Filiale Frankfurt</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.dnb.com/business-directory/company-profiles.banco_santander_sa_filiale_frankfurt.fffe21c8cdca22e6d2304f9df41f06c5.html</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Bank 1 Saar eG</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Bank Companie Nord GmbH i.L.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bank Deutsches Kraftfahrzeuggewerbe GmbH</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.bdk-bank.de/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>info.vertragbdk@bdk-bankkdb.de</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Fuhlsbüttler Straße 437</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>48091-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bank für Finanzierungen</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Bank für Kirche und Caritas eG</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bank für Kirche und Diakonie eG - KD-Bank</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.kd-bank.de/startseite.html</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Bank für Sozialwirtschaft Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Bank für Tirol und Vorarlberg AG, Zweigniederlassung Deutschland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BANK IM BISTUM ESSEN eG</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.bibessen.de/homepage.html</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Bank J. Safra Sarasin (Deutschland) AG</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>http://www.jsafrasarasin.de/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bank Julius Bär Europe AG</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BANK MELLI IRAN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bank of America Merrill Lynch International Limited Zweigniederlassung Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://business.bofa.com/content/boaml/en_us/locations.html</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bank of America, National Association Frankfurt Branch/ Filiale Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Bank of Beirut (UK) Ltd., Niederlassung Frankfurt</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.bankofbeirut.co.uk/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BANK OF CHINA LIMITED Zweigniederlassung Frankfurt am Main Frankfurt Branch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.boc.cn/en/aboutboc/ab6/200812/t20081216_494259.html</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Bank of Communications Co., Ltd. Frankfurt branch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Bank of Ireland, Niederlassung Frankfurt</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.bankofireland.com/about-bank-of-ireland/about-the-group/bank-of-ireland-worldwide/country/europe/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Bank of Scotland - Niederlassung Berlin</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Bank of Tokyo-Mitsubishi UFJ, Ltd. Berlin Representative Office</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bank Saderat Iran Zweigniederlassung Hamburg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Bank Schilling &amp; Co Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bank Sepah-Iran, Filiale Frankfurt</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bank Vontobel Europe AG</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Bank11 für Privatkunden und Handel GmbH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Bankgeschäftliche Informationen 2</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bankhaus Anton Hafner KG</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bankhaus August Lenz &amp; Co. Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.augustlenz.de/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Bankhaus Bauer Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://bankhausbauer.de/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>info@bankhausbauer.deHandelsregisterAmtsgericht</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>AktiengesellschaftHatzper Straße 3045149</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3045149 EssenTelefon: 02 01 217 605 - 0Telefax: 02 01 217 605 - 98E-Mail: info@bankhausbauer.deHandelsregisterAmtsgericht Essen, HRB 31673Bankleitzahl600 301 00BICBHBADES1XXXUmsatzsteueridentifikationsnummerDE273431252VorstandDr. Stefan Heddergott (Sprecher)Stefan BruggerAufsichtsratvorsitzenderGuido W. MundtAufsichtsbehördenEuropäische ZentralbankSonnemannstr. 2060314 FrankfurtBundesanstalt für FinanzdienstleistungsaufsichtSektor Banken- und VersicherungsaufsichtGraurheindorfer Straße 10853117 BonnSektor Wertpapieraufsicht / Asset-ManagementMarie-Curie-Str. 24-2860439 Frankfurt am MainVerantwortlich nach § 55 Abs. 2 RStVStefan BruggerEinlagensicherungDie Bank ist dem Einlagensicherungsfonds des Bundesverbandes deutscher Banken e. V. und der Entschädigungseinrichtung deutscher Banken GmbH angeschlossen. Von der Bank ausgegebene Inhaberschuldverschreibungen werden nicht geschützt. Näheres entnehmen Sie bitte Nr. 20 der Allgemeinen Geschäftsbedingungen, dem "Informationsbogen für den Einleger" und der Internetseite der Entschädigungseinrichtung deutscher Banken GmbH unter www.edb-banken.de.Außergerichtliche StreitschlichtungDie Bankhaus Bauer AG ist Mitglied im Bundesverband deutscher Banken e.V., Berlin.Für die Beilegung von Streitigkeiten mit der Bank besteht für Verbraucher die Möglichkeit, den Ombudsmann der privaten Banken, an dessen Verfahren die Bank teilnimmt, anzurufen. Betrifft der Beschwerdegegenstand eine Streitigkeit über einen Zahlungsdienstevertrag (§ 675f BGB), können auch Kunden, die nicht Verbraucher sind, den Ombudsmann der privaten Banken anrufen. Näheres regelt die “Verfahrensordnung für die Schlichtung von Kundenbeschwerden im deutschen Bankgewerbe”, die auf Wunsch zur Verfügung gestellt wird oder im Internet unter www.bankenverband.de abrufbar ist. Die Beschwerde ist in Textform an die Kundenbeschwerdestelle beim Bundesverband deutscher Banken e.V., Postfach 040307, 10062 Berlin, E-Mail: ombudsmann@bdb.de, zu richten.Hinweise zur europäischen Online-Plattform zur Beilegung von Streitigkeiten zwischen Verbrauchern und UnternehmernDie Europäische Kommission hat unter https://ec.europa.eu/consumers/odr/ eine Europäische Online-Streitbeilegungsplattform (OS-Plattform) errichtet. Die OS-Plattform kann ein Verbraucher für die außergerichtliche Beilegung einer Streitigkeit aus Online- Verträgen mit einem in der EU niedergelassenen Unternehmen nutzen.Bankhaus Bauer Unser Bankhaus  Karriere  Standorte  Datenschutz  Impressum Service Private Banking  Unser Team  Vermögensberatung  Vermögensverwaltung  Partnerschaft-Netzwerk  Leasing  Immobilienfinanzierung Sonstiges Kontakt  News  Kundeninformationen  Kontenschnittstelle für Dritte/Zahlungsdienstleister © 2022 Copyright Bankhaus Bauer Aktiengesellschaft</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bankhaus C.L. Seeliger</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bankhaus E. Mayer Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Bankhaus Ellwanger &amp; Geiger KG</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://privatbank.de/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>kontakt@privatbank.de</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Börsenplatz 1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>70174 Stuttgart</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Bankhaus Gebr. Martin Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.martinbank.de/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>info@martinbank.de</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Schlossplatz 7</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73033 GÃ¶ppingen+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Bankhaus Herzogpark AG</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Bankhaus J. Faißt oHG</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.bankhaus-faisst.de/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7-29info@bankhaus-faisst.dewww.bankhaus-faisst.de</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hauptstraße 43-45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>77709 WolfachTel. 07834 / 98 7-0Fax 07834/ 98 7-29info@bankhaus-faisst.dewww.bankhaus-faisst.de Handelsregister: HRA 680447 AG FreiburgUSt.-IdNr. DE 143 031 605St.Nr. 23002/08515</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Bankhaus Lampe KG</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Bankhaus_Lampe</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Bankhaus Ludwig Sperrer KG</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.sperrer.de/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Bankhaus Main GmbH</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Bankhaus Max Flessa KG</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Bankhaus Neelmeyer Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.neelmeyer.de/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>bankhaus@neelmeyer.de</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Am Markt 14-16</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28195 Bremen </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Bankhaus Partin GmbH &amp; Co. Kommanditgesellschaftn auf Aktien</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Bankhaus Rautenschlein AG</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.rautenschleinbank.de/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Bankhaus Scheich Wertpapierspezialist AG</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Bankhaus von der Heydt GmbH &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://en.1754.eu/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Bankhaus Werhahn GmbH</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.bankhaus-werhahn.de/home.html</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Banque Chaabi du Maroc S. A. Zweigniederlassung Deutschland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.dnb.com/business-directory/company-profiles.banque_chaabi_du_maroc_s_a_zweigniederlassung_deutschland.9254e850c0399e3a5800005cfe37bc95.html</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Banque CIC Est Repräsentanz (CIC-Gruppe)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.cic.fr/en/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Banque Regionale de l’Ouest Repräsentanz (CIC-Gruppe)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.cic.fr/en/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Banque Scalbert-Dupont Repräsentanz (CIC-Gruppe)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Banque Transatlantique Repräsentanz (CIC-Gruppe)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Barclays Bank PLC Frankfurt Branch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://thebanks.eu/banks/11178</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Bau- und Sparverein Geislingen eG</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bau- und Sparverein Göppingen eG</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Baugenossenschaft “Wiederaufbau” eG</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Baugenossenschaft Esslingen eG</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.bg-es.de/</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>67-10Websitewww.bg-es.deE-Mailinfo@bg-es.deVorstandChristian</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Richard-Hirschmann-Str. 12</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>73728 EsslingenPostfach 100922 			73709 EsslingenTelefon0711 - 35 17 67-10Websitewww.bg-es.deE-Mailinfo@bg-es.deVorstandChristian Brokate, Oliver KulpanekAufsichtsratsvorsitzJoachim KerstenRechtsformeingetragene GenossenschaftRegistergerichtAmtsgericht Stuttgart, Registergericht 			Hauffstr. 5 			70190 StuttgartRegisternummer210017Gesetzlicher Prüfungsverband nach § 54 GenGvbw Verband baden-württembergischer Wohnungs- und Immobilienunternehmen e. V. 			Herdweg 52/54 			70174 Stuttgartwww.vbw-online.deUmsatzsteuer-IdentifikationsnummerDE 145341797Aufsichtsbehörde nach § 6 KWGBaFin Bundesanstalt für Finanzdienstleistungsaufsicht 			Graurheindorfer Str. 108 			53117 BonnKonzeption, Gestaltung und Programmierungcasadomus AGinfo@casadomus.decasadomus.deSicherungseinrichtungDie Baugenossenschaft Esslingen eG ist dem Sicherungsfonds beim GdW Bundesverband deutscher Wohnungs- und Immobilienunternehmen e. V., Mecklenburgische Str. 57, 14197 Berlin, angeschlossen.Das Statut des Selbsthilfefonds zur Sicherung von Spareinlagen von Wohnungsgenossenschaften finden Sie hier.Mitgliedschaftenvbw Verband baden-württembergischer Wohnungs- und Immobilienunternehmen e. V. IHK Industrie- und Handelskammer Region Stuttgart Marketinginitiative der Wohnungsbaugenossenschaften Baden-Württemberg e. V. agv Arbeitgeberverband der Wohnungswirtschaft e. V. DESWOS Deutsche Entwicklungshilfe für soziales Wohnungs- und Siedlungswesen e. V. City Initiative Esslingen e. V. Verein zur Förderung der Akademie Deutscher Genossenschaften e. V.Wesentliche Merkmale der angebotenen LeistungenDie Genossenschaft kann Bauten in allen Rechts- und Nutzungsformen bewirtschaften, errichten, erwerben, veräußern und betreuen; sie kann alle im Bereich der Wohnungs- und Immobilienwirtschaft, des Städtebaus und der Infrastruktur anfallenden Aufgaben übernehmen. Hierzu gehören Gemeinschaftsanlagen und Folgeeinrichtungen, Läden und Räume für Gewerbebetriebe, soziale, wirtschaftliche und kulturelle Einrichtungen und Dienstleistungen. Beteiligungen sind zulässig, sowie der Betrieb einer Spareinrichtung.VerträgeDie von uns verwendeten Verträge liegen auf der Geschäftsstelle Richard-Hirschmann-Str. 12, 73728 Esslingen zur Einsicht bereit.Preise der DienstleistungInformationen zu den Preisen unserer Dienstleistung gemäß § 4 DL-InfoV teilen wir auf Anfrage mit. Aktuelle Vermietungs- und Verkaufsangebote können auf unserer Homepage www.bg-es.de eingesehen werden.Allgemeine GeschäftsbedingungenWir verwenden nur auf konkrete Verträge bezogene Allgemeine Vertragsbestimmungen, die auf der Geschäftsstelle Richard-Hirschmann-Str. 12, 73728 Esslingen zur Einsicht bereit liegen.VertragsklauselnWir haben keine Vertragsklauseln, die über das auf den konkreten Vertrag anwendbare Recht hinausgehen.GarantienWir haben keine Garantien, die über gesetzliche Gewährleistungsrechte hinausgehen.Information nach §§ 36, 37 VerbraucherstreitbeilegungsgesetzDie Baugenossenschaft Esslingen eG ist zur Teilnahme an Streitbeilegungsverfahren vor einer Verbraucherschlichtungsstelle weder bereit noch verpflichtet. Uns ist vielmehr daran gelegen, etwaige Streitigkeiten mit Kunden im direkten Kontakt zu klären. Bitte wenden Sie sich gegebenenfalls an uns.Verantwortlichfür den journalistisch-redaktionell gestalteten Inhalt im Sinne des § 55 Abs. 2 des Staatsvertrages für Rundfunk und Telemedien Christian BrokateHaftungshinweisTrotz sorgfältiger inhaltlicher Kontrolle übernehmen wir keine Haftung für Inhalte externer Links. Fü</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Baugenossenschaft Freie Scholle, eingetragene Genossenschaft</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.freiescholle.de/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>mail@freiescholle.dewww.freiescholle.de</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Schollenhof 713509</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>713509 Berlin (Tegel)Telefon: (030) 43 80 00-0Telefax: (030) 43 80 00 18E-Mail: mail@freiescholle.dewww.freiescholle.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Baugenossenschaft Haltingen-Weil e.G.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.bgweil.de/</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Baugenossenschaft Münchberg eG</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.bg-muenchberg.de/</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>info@bg-muenchberg.de</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Zelchstr. 22</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>95213 Münchberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Baugenossenschaft Spar- und Bauverein 1895 Mannheim e.G.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Bausparkasse Mainz Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Bausparkasse Schwäbisch Hall Aktiengesellschaft, Bausparkasse der Volksbanken und Raiffeisenbanken</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Bauverein Breisgau eG</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.bauverein-breisgau.de/</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>info@bauverein-breisgau.de</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Zähringer Str. 48</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>79108 Freiburg  Telefon: 0761/51044-0 Fax: 0761/51044-90  Email: info@bauverein-breisgau.de   Sitz der Genossenschaft: Freiburg im Breisgau Registergericht: Freiburg GnR 3 St.-Nr. 06409 43602Vorstand: Marc Ullrich (Vorsitzender), Jörg StraubAufsichtsratsvorsitzender: Martin Behrens</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Bauverein Schweinfurt eG</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.bauverein-sw.de/</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Gartenstadtstraße 197424</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>197424 SchweinfurtTelefon: 09721 / 7444-0Fax: 09721 / 7444-44E-Mail:</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Bayerische Bodenseebank -Raiffeisen- eingetragene Genossenschaft</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://eg-schlachters.de/impressum/</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9209-46info@eg-schlachters.de</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Hauptstraße 51</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01714043618 404 – die gewünschte Seite wurde leider nicht gefunden             Elektrizitätsgenossenschaft Schlachters eGHauptstraße 51 88138 SigmarszellTelefon: 08389 / 9209-0 Telefax: 08389 / 9209-46info@eg-schlachters.de www.eg-schlachters.deAnfahrtHier finden Sie die GPS-Daten und die Anfahrtsskizze auf Google Maps.AnfahrtKontaktSie wollen uns Informationen zu Ihrem Vertrag mitteilen oder haben detaillierte Fragen zu unseren Produkten? Dann kontaktieren Sie uns über unser Kontaktformular.KontaktformularDownloadsUm Ihnen die Suche zu erleichtern finden Sie hier alle Dokumente nach Themenbereich zugeordnet zum herunterladen. Einige Dokumente können direkt am PC ausgefüllt und ausgedruckt werden oder Sie senden sie via E-Mail an uns.Downloads© Elektrizitätsgenossenschaft Schlachters 2019. Alle Rechte vorbehalten. StartImpressumDatenschutz </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Bayerische Landesbank</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.bayernlb.com/</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BayWa CS GmbH</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.baywa.com/en</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>BBB Bürgschaftsbank zu Berlin-Brandenburg GmbH</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BBBank eG</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.bbbank.de/homepage.html</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>BDT &amp; Company International, LLP Zweigniederlassung Frankfurt</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Beamten-Wohnungs-Verein zu Hildesheim eG</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Beamten-Wohnungs-Verein zu Köpenick eG</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.bwv-zk.de/</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>bwv@bwv-zk.deinfo</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Weskammstr. 1512279</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1512279 BerlinTelefon: 030-723 80- 5Telefax: 030-723 80-750</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Bensberger Bank e.G.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Berkheimer Bank eG</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.bloomberg.com/profile/company/1153710D:GR</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Berlin Hyp AG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Berliner Bau- und Wohnungsgenossenschaft von 1892 eG.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
